--- a/trunk/docs/Graph.xlsx
+++ b/trunk/docs/Graph.xlsx
@@ -9,17 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="IDA" sheetId="1" r:id="rId1"/>
     <sheet name="VOLTA" sheetId="2" r:id="rId2"/>
     <sheet name="TODAS" sheetId="4" r:id="rId3"/>
-    <sheet name="Plan5" sheetId="5" r:id="rId4"/>
-    <sheet name="Plan7" sheetId="7" r:id="rId5"/>
+    <sheet name="Plan1" sheetId="8" r:id="rId4"/>
+    <sheet name="Plan5" sheetId="5" r:id="rId5"/>
+    <sheet name="Plan7" sheetId="7" r:id="rId6"/>
+    <sheet name="Plan2" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Plan5!$B$1:$B$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Plan5!$B$1:$B$33</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1009" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="56">
   <si>
     <t>ORIGEM</t>
   </si>
@@ -290,16 +292,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vírgula" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -310,6 +303,9 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -349,7 +345,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -417,7 +422,7 @@
     <tableColumn id="8" name="TIPO"/>
     <tableColumn id="1" name="ORIGEM"/>
     <tableColumn id="2" name="DESTINO"/>
-    <tableColumn id="3" name="CUSTO" dataDxfId="11"/>
+    <tableColumn id="3" name="CUSTO" dataDxfId="12"/>
     <tableColumn id="5" name="SAIDA"/>
     <tableColumn id="6" name="CHEGADA"/>
     <tableColumn id="7" name="TEMPO" dataCellStyle="Vírgula">
@@ -462,21 +467,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:H105" totalsRowShown="0">
-  <autoFilter ref="A1:H105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela17" displayName="Tabela17" ref="A1:I105" totalsRowShown="0">
+  <autoFilter ref="A1:I105"/>
   <sortState ref="A2:H105">
     <sortCondition ref="C1:C105"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="4" name="EMPRESA"/>
     <tableColumn id="8" name="TIPO"/>
     <tableColumn id="1" name="ORIGEM"/>
     <tableColumn id="2" name="DESTINO"/>
-    <tableColumn id="3" name="CUSTO" dataDxfId="10"/>
+    <tableColumn id="3" name="CUSTO" dataDxfId="11"/>
     <tableColumn id="5" name="SAIDA"/>
     <tableColumn id="6" name="CHEGADA"/>
-    <tableColumn id="7" name="TEMPO" dataDxfId="9" dataCellStyle="Vírgula">
+    <tableColumn id="7" name="TEMPO" dataDxfId="10" dataCellStyle="Vírgula">
       <calculatedColumnFormula>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" name="SCRIPT" dataDxfId="0">
+      <calculatedColumnFormula>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -487,12 +495,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tabela7" displayName="Tabela7" ref="B1:E33" totalsRowShown="0">
   <autoFilter ref="B1:E33"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="CIDADES" dataDxfId="8"/>
-    <tableColumn id="3" name="SCRIPT" dataDxfId="3">
+    <tableColumn id="1" name="CIDADES" dataDxfId="9"/>
+    <tableColumn id="3" name="SCRIPT" dataDxfId="8">
       <calculatedColumnFormula>Tabela7[[#This Row],[NUMERO]]&amp;" [label="""&amp; LOWER(Tabela7[[#This Row],[CIDADES]])&amp;"""];"</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" name="NUMERO" dataDxfId="7"/>
-    <tableColumn id="5" name="Colunas1" dataDxfId="2">
+    <tableColumn id="5" name="Colunas1" dataDxfId="6">
       <calculatedColumnFormula>LOWER(Tabela7[[#This Row],[CIDADES]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -511,7 +519,7 @@
     <tableColumn id="2" name="NUM-DESTINO"/>
     <tableColumn id="3" name="ORIGEM"/>
     <tableColumn id="4" name="DESTINO"/>
-    <tableColumn id="5" name="CUSTO" dataDxfId="0"/>
+    <tableColumn id="5" name="CUSTO" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -525,13 +533,13 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="ORIGEM"/>
-    <tableColumn id="2" name="NUM" dataDxfId="6"/>
+    <tableColumn id="2" name="NUM" dataDxfId="4"/>
     <tableColumn id="3" name="DESTINO"/>
-    <tableColumn id="4" name="NUM2" dataDxfId="5"/>
-    <tableColumn id="5" name="SCRIPT" dataDxfId="1">
+    <tableColumn id="4" name="NUM2" dataDxfId="3"/>
+    <tableColumn id="5" name="SCRIPT" dataDxfId="2">
       <calculatedColumnFormula>Tabela10[[#This Row],[NUM2]]&amp;"--"&amp;Tabela10[[#This Row],[NUM]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="ROUTE" dataDxfId="4"/>
+    <tableColumn id="6" name="ROUTE" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -802,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6356,10 +6364,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H105"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E10" sqref="D10:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6370,9 +6378,10 @@
     <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -6397,8 +6406,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -6424,8 +6436,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>476.31944444444451</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('AMERICANA', 'ASSIS', 84);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -6451,8 +6467,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>596.65277777777783</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('AMERICANA', 'LONDRINA', 113.25);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -6478,8 +6498,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>60.166666666666693</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ANDIRA', 'CORNELIO PROCOPIO', 10.09);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -6505,8 +6529,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1383.8333333333335</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ARACATUBA', 'BELO HORIZONTE', 148);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -6532,8 +6560,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>366.01388888888897</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ARACATUBA', 'LONDRINA', 72);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6559,8 +6591,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ARACATUBA', 'TUPA', 19.75);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6586,8 +6622,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>300.83333333333337</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ARARAQUARA', 'ASSIS', 67);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>43</v>
       </c>
@@ -6613,8 +6653,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>381.05555555555543</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ARARAQUARA', 'CORNELIO PROCOPIO', 61);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -6640,8 +6684,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>476.31944444444451</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'AMERICANA', 84);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -6667,8 +6715,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>300.83333333333337</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'ARARAQUARA', 67);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -6694,8 +6746,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>165.4583333333334</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'BAURU', 30.75);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -6721,8 +6777,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>706.95833333333337</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'BELO HORIZONTE', 144.29);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6748,8 +6808,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>511.41666666666663</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'CAMPINAS', 87);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -6775,8 +6839,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.33333333333339</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'CORNELIO PROCOPIO', 17.45);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -6802,8 +6870,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.33333333333334</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'LONDRINA', 27);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6829,8 +6901,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.2083333333333</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'MARILIA', 14.4);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -6856,8 +6932,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.2083333333333</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'PRESIDENTE PRUDENTE', 14.4);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -6883,8 +6963,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>115.31944444444443</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'RANCHARIA', 10.1);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -6910,8 +6994,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>376.04166666666669</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'RIBEIRAO PRETO', 60.5);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -6937,8 +7025,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>406.125</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'RIO CLARO', 80);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>18</v>
       </c>
@@ -6964,8 +7056,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>335.93055555555566</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'SAO CARLOS', 75);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6991,8 +7087,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>285.79166666666669</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'SAO JOSE DO RIO PRETO', 46);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
@@ -7018,8 +7118,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('ASSIS', 'TUPA', 22.75);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -7045,8 +7149,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>70.194444444444514</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BANDEIRANTES', 'CORNELIO PROCOPIO', 7.18);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>43</v>
       </c>
@@ -7072,8 +7180,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BANDEIRANTES', 'LONDRINA', 26.78);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -7099,8 +7211,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>165.4583333333334</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BAURU', 'ASSIS', 30.75);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -7126,8 +7242,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1012.8055555555554</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BAURU', 'BELO HORIZONTE', 129.2);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -7153,8 +7273,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>285.79166666666669</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BAURU', 'LONDRINA', 57.25);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -7180,8 +7304,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1383.8333333333335</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BELO HORIZONTE', 'ARACATUBA', 148);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -7207,8 +7335,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>706.95833333333337</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BELO HORIZONTE', 'ASSIS', 144.29);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -7234,8 +7366,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1012.8055555555554</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BELO HORIZONTE', 'BAURU', 129.2);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -7261,8 +7397,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>962.66666666666663</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('BELO HORIZONTE', 'SAO JOSE DO RIO PRETO', 124.92);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -7288,8 +7428,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>561.55555555555543</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CAMBURIU', 'LONDRINA', 110);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -7315,8 +7459,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>511.41666666666663</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CAMPINAS', 'ASSIS', 87);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -7342,8 +7490,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>601.66666666666663</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CAMPINAS', 'LONDRINA', 101.1);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -7369,8 +7521,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>60.166666666666693</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'ANDIRA', 10.09);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
@@ -7396,8 +7552,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>381.05555555555543</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'ARARAQUARA', 61);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -7423,8 +7583,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.33333333333339</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'ASSIS', 17.45);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -7450,8 +7614,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>70.194444444444514</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'BANDEIRANTES', 7.18);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -7477,8 +7645,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1007.7916666666667</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'CURITIBA', 106.31);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>18</v>
       </c>
@@ -7504,8 +7676,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.208333333333385</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'FLORINEA', 11.3);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>18</v>
       </c>
@@ -7531,8 +7707,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>30.083333333333385</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'LEOPOLIS', 3.6);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -7558,8 +7738,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>80.222222222222172</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'LONDRINA', 14.8);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -7585,8 +7769,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>140.38888888888886</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'OURINHOS', 24);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>18</v>
       </c>
@@ -7612,8 +7800,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>45.125</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'SERTANEJA', 4.94);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -7639,8 +7831,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>95.263888888888957</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CORNELIO PROCOPIO', 'TARUMA', 14.6);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>43</v>
       </c>
@@ -7666,8 +7862,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1007.7916666666667</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CURITIBA', 'CORNELIO PROCOPIO', 106.31);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -7693,8 +7893,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>381.05555555555554</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('CURITIBA', 'LONDRINA', 105.92);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -7720,8 +7924,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>636.76388888888891</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('FLORIANOPOLIS', 'LONDRINA', 122.3);</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -7747,8 +7955,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.208333333333385</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('FLORINEA', 'CORNELIO PROCOPIO', 11.3);</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -7774,8 +7986,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>546.51388888888903</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('FOZ DO IGUACU', 'LONDRINA', 113.69);</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -7801,8 +8017,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1198.3194444444446</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('IPATINGA', 'LONDRINA', 224.07);</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>18</v>
       </c>
@@ -7828,8 +8048,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>230.63888888888886</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('JOSE BONIFACIO', 'TUPA', 42.1);</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>18</v>
       </c>
@@ -7855,8 +8079,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>30.083333333333385</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LEOPOLIS', 'CORNELIO PROCOPIO', 3.6);</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>18</v>
       </c>
@@ -7882,8 +8110,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>596.65277777777783</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'AMERICANA', 113.25);</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -7909,8 +8141,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>366.01388888888897</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'ARACATUBA', 72);</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>18</v>
       </c>
@@ -7936,8 +8172,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.33333333333334</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'ASSIS', 27);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -7963,8 +8203,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'BANDEIRANTES', 26.78);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -7990,8 +8234,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>285.79166666666669</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'BAURU', 57.25);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -8017,8 +8265,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>561.55555555555543</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'CAMBURIU', 110);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -8044,8 +8296,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>601.66666666666663</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'CAMPINAS', 101.1);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -8071,8 +8327,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>80.222222222222172</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'CORNELIO PROCOPIO', 14.8);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -8098,8 +8358,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>381.05555555555554</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'CURITIBA', 105.92);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>43</v>
       </c>
@@ -8125,8 +8389,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>636.76388888888891</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'FLORIANOPOLIS', 122.3);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>43</v>
       </c>
@@ -8152,8 +8420,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>546.51388888888903</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'FOZ IGUACU', 113.69);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>44</v>
       </c>
@@ -8179,8 +8451,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>1198.3194444444446</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'IPATINGA', 224.07);</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>18</v>
       </c>
@@ -8206,8 +8482,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>195.54166666666669</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'MARILIA', 40.75);</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>43</v>
       </c>
@@ -8233,8 +8513,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>255.7083333333334</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'OSVALDO CRUZ', 54.76);</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>43</v>
       </c>
@@ -8260,8 +8544,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>220.61111111111114</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'OURINHOS', 41.59);</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>43</v>
       </c>
@@ -8287,8 +8575,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'PRESIDENTE PRUDENTE', 42.04);</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>18</v>
       </c>
@@ -8314,8 +8606,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>496.37500000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'RIBEIRAO PRETO', 86.5);</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>18</v>
       </c>
@@ -8341,8 +8637,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>526.45833333333326</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'RIO CLARO', 109.25);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>18</v>
       </c>
@@ -8368,8 +8668,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>456.26388888888897</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'SAO CARLOS', 104.25);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -8395,8 +8699,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>406.12500000000006</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'SAO JOSE DO RIO PRETO', 72.5);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -8422,8 +8730,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>526.45833333333326</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'SAO PAULO', 100.1);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -8449,8 +8761,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>270.75</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('LONDRINA', 'TUPA', 52);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -8476,8 +8792,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.2083333333333</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('MARILIA', 'ASSIS', 14.4);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -8503,8 +8823,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>195.54166666666669</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('MARILIA', 'LONDRINA', 40.75);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -8530,8 +8854,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('MARILIA', 'TUPA', 9.45);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>43</v>
       </c>
@@ -8557,8 +8885,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>255.7083333333334</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('OSVALDO CRUZ', 'LONDRINA', 54.76);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>43</v>
       </c>
@@ -8584,8 +8916,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>140.38888888888886</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('OURINHOS', 'CORNELIO PROCOPIO', 24);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>43</v>
       </c>
@@ -8611,8 +8947,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>220.61111111111114</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('OURINHOS', 'LONDRINA', 41.59);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -8638,8 +8978,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>75.2083333333333</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('PRESIDENTE PRUDENTE', 'ASSIS', 14.4);</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>43</v>
       </c>
@@ -8665,8 +9009,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('PRESIDENTE PRUDENTE', 'LONDRINA', 42.04);</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -8692,8 +9040,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>165.45833333333331</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('PRESIDENTE PRUDENTE', 'TUPA', 14.8);</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>18</v>
       </c>
@@ -8719,8 +9071,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>115.31944444444443</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('RANCHARIA', 'ASSIS', 10.1);</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>18</v>
       </c>
@@ -8746,8 +9102,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>376.04166666666669</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('RIBEIRAO PRETO', 'ASSIS', 60.5);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>18</v>
       </c>
@@ -8773,8 +9133,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>496.37500000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('RIBEIRAO PRETO', 'LONDRINA', 86.5);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>18</v>
       </c>
@@ -8800,8 +9164,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>406.125</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('RIO CLARO', 'ASSIS', 80);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>18</v>
       </c>
@@ -8827,8 +9195,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>526.45833333333326</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('RIO CLARO', 'LONDRINA', 109.25);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>18</v>
       </c>
@@ -8854,8 +9226,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>335.93055555555566</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO CARLOS', 'ASSIS', 75);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -8881,8 +9257,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>456.26388888888897</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO CARLOS', 'LONDRINA', 104.25);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>18</v>
       </c>
@@ -8908,8 +9288,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>285.79166666666669</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO JOSE DO RIO PRETO', 'ASSIS', 46);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>44</v>
       </c>
@@ -8935,8 +9319,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>962.66666666666663</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO JOSE DO RIO PRETO', 'BELO HORIZONTE', 124.92);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>18</v>
       </c>
@@ -8962,8 +9350,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>406.12500000000006</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO JOSE DO RIO PRETO', 'LONDRINA', 72.5);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>43</v>
       </c>
@@ -8989,8 +9381,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>526.45833333333326</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SAO PAULO', 'LONDRINA', 100.1);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>18</v>
       </c>
@@ -9016,8 +9412,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>45.125</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('SERTANEJA', 'CORNELIO PROCOPIO', 4.94);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>18</v>
       </c>
@@ -9043,8 +9443,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>95.263888888888957</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TARUMA', 'CORNELIO PROCOPIO', 14.6);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>18</v>
       </c>
@@ -9070,8 +9474,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>180.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'ARACATUBA', 19.75);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -9097,8 +9505,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'ASSIS', 22.75);</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>18</v>
       </c>
@@ -9124,8 +9536,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>230.63888888888886</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'JOSE BONIFACIO', 42.1);</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>18</v>
       </c>
@@ -9151,8 +9567,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>270.75</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'LONDRINA', 52);</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -9178,8 +9598,12 @@
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>120.3333333333333</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'MARILIA', 9.45);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>18</v>
       </c>
@@ -9204,6 +9628,10 @@
       <c r="H105" s="3">
         <f>(Tabela17[CHEGADA]-Tabela17[SAIDA])*1444</f>
         <v>165.45833333333331</v>
+      </c>
+      <c r="I105" t="str">
+        <f>"call dijaddpath_money  ('"&amp;Tabela17[[#This Row],[ORIGEM]]&amp;"', '"&amp;Tabela17[[#This Row],[DESTINO]]&amp;"', "&amp;SUBSTITUTE(Tabela17[[#This Row],[CUSTO]],",",".")&amp;");"</f>
+        <v>call dijaddpath_money  ('TUPA', 'PRESIDENTE PRUDENTE', 14.8);</v>
       </c>
     </row>
   </sheetData>
@@ -9216,10 +9644,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E32" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K53"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10605,7 +11047,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F105"/>
   <sheetViews>
@@ -12556,4 +12998,496 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>2</v>
+      </c>
+      <c r="F1">
+        <v>3</v>
+      </c>
+      <c r="G1">
+        <v>4</v>
+      </c>
+      <c r="H1">
+        <v>5</v>
+      </c>
+      <c r="I1">
+        <v>6</v>
+      </c>
+      <c r="J1">
+        <v>7</v>
+      </c>
+      <c r="K1">
+        <v>8</v>
+      </c>
+      <c r="L1">
+        <v>9</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>11</v>
+      </c>
+      <c r="O1">
+        <v>12</v>
+      </c>
+      <c r="P1">
+        <v>13</v>
+      </c>
+      <c r="Q1">
+        <v>14</v>
+      </c>
+      <c r="R1">
+        <v>15</v>
+      </c>
+      <c r="S1">
+        <v>16</v>
+      </c>
+      <c r="T1">
+        <v>17</v>
+      </c>
+      <c r="U1">
+        <v>18</v>
+      </c>
+      <c r="V1">
+        <v>19</v>
+      </c>
+      <c r="W1">
+        <v>20</v>
+      </c>
+      <c r="X1">
+        <v>21</v>
+      </c>
+      <c r="Y1">
+        <v>22</v>
+      </c>
+      <c r="Z1">
+        <v>23</v>
+      </c>
+      <c r="AA1">
+        <v>24</v>
+      </c>
+      <c r="AB1">
+        <v>25</v>
+      </c>
+      <c r="AC1">
+        <v>26</v>
+      </c>
+      <c r="AD1">
+        <v>27</v>
+      </c>
+      <c r="AE1">
+        <v>28</v>
+      </c>
+      <c r="AF1">
+        <v>29</v>
+      </c>
+      <c r="AG1">
+        <v>30</v>
+      </c>
+      <c r="AH1">
+        <v>31</v>
+      </c>
+      <c r="AI1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="E12">
+        <v>10.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>113.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>